--- a/assets/BOM.xlsx
+++ b/assets/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Manufacturer Part</t>
   </si>
   <si>
-    <t>Магазин</t>
-  </si>
-  <si>
     <t>100uF</t>
   </si>
   <si>
@@ -54,9 +51,6 @@
     <t>RVT1C101M0605</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product0/9000565735</t>
-  </si>
-  <si>
     <t>100nF</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>GRM21BR71H104KA01L</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/grm21br71e104ka01l</t>
-  </si>
-  <si>
     <t>22uF</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>RVT1V220M0505</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product0/9000565721</t>
-  </si>
-  <si>
     <t>1N4148</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <t>1N4148WS</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/1n4148ws-4</t>
-  </si>
-  <si>
     <t>TRC025</t>
   </si>
   <si>
@@ -120,9 +105,6 @@
     <t>F1812</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/mf-msmf110</t>
-  </si>
-  <si>
     <t>LED0805</t>
   </si>
   <si>
@@ -132,18 +114,9 @@
     <t>LED0805-RD</t>
   </si>
   <si>
-    <t>led0805</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/to-2013bc-pg</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/to-2013bc-bf</t>
-  </si>
-  <si>
     <t>BC858A</t>
   </si>
   <si>
@@ -153,9 +126,6 @@
     <t>SOT-23(SOT-23-3)</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/bc858b</t>
-  </si>
-  <si>
     <t>1K</t>
   </si>
   <si>
@@ -165,63 +135,24 @@
     <t>R0805</t>
   </si>
   <si>
-    <t>RC0805FR-071KL</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/0.125w-0805-1-kom-1</t>
-  </si>
-  <si>
     <t>4.7K</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>RC0805FR-074K7L</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/0.125w-0805-4.7-kom-1</t>
-  </si>
-  <si>
     <t>R3,R6</t>
   </si>
   <si>
-    <t>330Ω</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/0.125w-0805-330-om-1</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>220Ω</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/0.125w-0805-220-om-1</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
-    <t>100Ω</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/0.125w-0805-100-om-1</t>
-  </si>
-  <si>
     <t>1.5k</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>https://www.chipdip.ru/product/0.125w-0805-1.5-kom-1</t>
-  </si>
-  <si>
     <t>HLK-PM01</t>
   </si>
   <si>
@@ -231,9 +162,6 @@
     <t>PWRM-TH_HLK-PM01</t>
   </si>
   <si>
-    <t>https://aliexpress.ru/item/1018666626.html</t>
-  </si>
-  <si>
     <t>AMS1117-3.3</t>
   </si>
   <si>
@@ -243,9 +171,6 @@
     <t>SOT-223-3_L6.4-W3.5-P2.30-LS7.0-BR</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/ams1117-3.3</t>
-  </si>
-  <si>
     <t>PC817</t>
   </si>
   <si>
@@ -258,9 +183,6 @@
     <t>PC817X3NIP1B</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/pc817-ltv817s</t>
-  </si>
-  <si>
     <t>B72210S2511K101</t>
   </si>
   <si>
@@ -270,9 +192,6 @@
     <t>RES-TH_L12.5-W8.0-P7.50-D0.8-S3.10</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/b72210-s251-k101</t>
-  </si>
-  <si>
     <t>4V7</t>
   </si>
   <si>
@@ -285,9 +204,6 @@
     <t>BZV55C4V7</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/bzv55c4v7</t>
-  </si>
-  <si>
     <t>15V</t>
   </si>
   <si>
@@ -297,9 +213,6 @@
     <t>BZV55C15</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/bzv55c15</t>
-  </si>
-  <si>
     <t>4V3</t>
   </si>
   <si>
@@ -309,20 +222,62 @@
     <t>BZV55C4V3</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/bzv55c4v3</t>
-  </si>
-  <si>
     <t>0.5A</t>
   </si>
   <si>
-    <t>https://www.chipdip.ru/product/vp4-1-0.5a</t>
+    <t>R2,R10</t>
+  </si>
+  <si>
+    <t>KLS2-300-5.00-03P-2S</t>
+  </si>
+  <si>
+    <t>U6,U7,U8,U9</t>
+  </si>
+  <si>
+    <t>D2MG</t>
+  </si>
+  <si>
+    <t>PBS-4</t>
+  </si>
+  <si>
+    <t>DS1023-1*4S21</t>
+  </si>
+  <si>
+    <t>PBS-3</t>
+  </si>
+  <si>
+    <t>DS1023-1*3S21</t>
+  </si>
+  <si>
+    <t>PBS-8</t>
+  </si>
+  <si>
+    <t>DS1023-1*8S21</t>
+  </si>
+  <si>
+    <t>PLS-8</t>
+  </si>
+  <si>
+    <t>DS1021-1*8SF11-B</t>
+  </si>
+  <si>
+    <t>PLS-10</t>
+  </si>
+  <si>
+    <t>DS1021-1*10SF112-B</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TYPE 12! Length &gt;= 12mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,15 +430,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -782,7 +728,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -825,16 +771,17 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -862,7 +809,6 @@
     <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Гиперссылка" xfId="42" builtinId="8"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -879,7 +825,10 @@
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -909,16 +858,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G30" totalsRowShown="0">
+  <autoFilter ref="A1:G30"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" name="Designator" dataDxfId="3"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="2"/>
-    <tableColumn id="5" name="Quantity" dataDxfId="1"/>
-    <tableColumn id="6" name="Manufacturer Part" dataDxfId="0"/>
-    <tableColumn id="7" name="Магазин"/>
+    <tableColumn id="2" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" name="Designator" dataDxfId="4"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="3"/>
+    <tableColumn id="5" name="Quantity" dataDxfId="2"/>
+    <tableColumn id="6" name="Manufacturer Part" dataDxfId="1"/>
+    <tableColumn id="7" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1187,19 +1136,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="20.703125" customWidth="1"/>
-    <col min="3" max="3" width="14.41015625" customWidth="1"/>
-    <col min="4" max="4" width="22.9375" customWidth="1"/>
-    <col min="5" max="5" width="9.41015625" customWidth="1"/>
-    <col min="6" max="6" width="23.1171875" customWidth="1"/>
+    <col min="3" max="3" width="19.46875" customWidth="1"/>
+    <col min="4" max="4" width="33.41015625" customWidth="1"/>
+    <col min="5" max="5" width="12.17578125" customWidth="1"/>
+    <col min="6" max="6" width="29.1171875" customWidth="1"/>
     <col min="7" max="7" width="45.3515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1223,544 +1172,581 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>330</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>220</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>100</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>96</v>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G22" r:id="rId21"/>
-    <hyperlink ref="G23" r:id="rId22"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/assets/BOM.xlsx
+++ b/assets/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A01272C-0B18-4559-A9D9-1F3864CC6658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B81B9D-8D1A-4FC8-B4B1-BACADFA27FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="12835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="168">
   <si>
     <t>No.</t>
   </si>
@@ -455,57 +455,57 @@
     <t>C545324</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>PBS-4</t>
+  </si>
+  <si>
     <t>DS1023-1*4S21</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>PBS-3</t>
+  </si>
+  <si>
     <t>DS1023-1*3S21</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>PBS-8</t>
+  </si>
+  <si>
     <t>DS1023-1*8S21</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>PLS-8</t>
+  </si>
+  <si>
     <t>DS1021-1*8SF11-B</t>
   </si>
   <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>PLS-10</t>
+  </si>
+  <si>
     <t>DS1021-1*10SF112-B</t>
   </si>
   <si>
-    <t>PBS-4</t>
-  </si>
-  <si>
-    <t>PBS-3</t>
-  </si>
-  <si>
-    <t>PBS-8</t>
-  </si>
-  <si>
-    <t>PLS-8</t>
-  </si>
-  <si>
-    <t>PLS-10</t>
-  </si>
-  <si>
     <t>TYPE 12! Length &gt;= 12mm</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -519,22 +519,13 @@
   </si>
   <si>
     <t>1.1A</t>
-  </si>
-  <si>
-    <t>4.7V</t>
-  </si>
-  <si>
-    <t>15V</t>
-  </si>
-  <si>
-    <t>4.3V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,12 +540,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -580,10 +565,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -925,15 +910,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="27.21875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -975,7 +960,7 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -1007,7 +992,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
@@ -1039,7 +1024,7 @@
       <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
@@ -1071,7 +1056,7 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -1103,7 +1088,7 @@
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -1135,7 +1120,7 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
@@ -1167,7 +1152,7 @@
       <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
@@ -1199,7 +1184,7 @@
       <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -1231,7 +1216,7 @@
       <c r="B10" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
@@ -1263,7 +1248,7 @@
       <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>4</v>
       </c>
       <c r="D11" t="s">
@@ -1295,7 +1280,7 @@
       <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
@@ -1327,7 +1312,7 @@
       <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
@@ -1359,7 +1344,7 @@
       <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
@@ -1391,7 +1376,7 @@
       <c r="B15" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
@@ -1423,7 +1408,7 @@
       <c r="B16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
@@ -1455,7 +1440,7 @@
       <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
@@ -1487,7 +1472,7 @@
       <c r="B18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
@@ -1519,7 +1504,7 @@
       <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -1551,7 +1536,7 @@
       <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
@@ -1583,7 +1568,7 @@
       <c r="B21" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
@@ -1615,7 +1600,7 @@
       <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
@@ -1647,7 +1632,7 @@
       <c r="B23" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
@@ -1679,7 +1664,7 @@
       <c r="B24" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -1711,14 +1696,14 @@
       <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>136</v>
@@ -1743,14 +1728,14 @@
       <c r="B26" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -1775,14 +1760,14 @@
       <c r="B27" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -1802,108 +1787,110 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="2">
+        <v>147</v>
+      </c>
+      <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>147</v>
-      </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="2">
+        <v>154</v>
+      </c>
+      <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="2">
+        <v>157</v>
+      </c>
+      <c r="C31" s="1">
         <v>2</v>
       </c>
       <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J31" t="s">
         <v>149</v>
-      </c>
-      <c r="J31" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="J32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
       <c r="B33" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>165</v>
       </c>
+      <c r="J33" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/assets/BOM.xlsx
+++ b/assets/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B81B9D-8D1A-4FC8-B4B1-BACADFA27FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4691D65A-32C3-45DB-98B3-5AA6302B6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="12835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
   <si>
     <t>No.</t>
   </si>
@@ -519,6 +519,18 @@
   </si>
   <si>
     <t>1.1A</t>
+  </si>
+  <si>
+    <t>4.7V</t>
+  </si>
+  <si>
+    <t>15V</t>
+  </si>
+  <si>
+    <t>4.3V</t>
+  </si>
+  <si>
+    <t>For manual assembly</t>
   </si>
 </sst>
 </file>
@@ -563,12 +575,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -910,15 +925,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1703,7 +1720,7 @@
         <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
         <v>136</v>
@@ -1735,7 +1752,7 @@
         <v>135</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -1767,7 +1784,7 @@
         <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -1789,11 +1806,14 @@
       <c r="A28" t="s">
         <v>146</v>
       </c>
-      <c r="B28" t="s">
-        <v>147</v>
+      <c r="B28" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
       </c>
       <c r="F28" t="s">
         <v>148</v>
@@ -1806,11 +1826,12 @@
       <c r="A29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" t="s">
-        <v>151</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="1">
         <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
       </c>
       <c r="F29" t="s">
         <v>152</v>
@@ -1823,11 +1844,12 @@
       <c r="A30" t="s">
         <v>153</v>
       </c>
-      <c r="B30" t="s">
-        <v>154</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="1">
         <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>154</v>
       </c>
       <c r="F30" t="s">
         <v>155</v>
@@ -1840,11 +1862,12 @@
       <c r="A31" t="s">
         <v>156</v>
       </c>
-      <c r="B31" t="s">
-        <v>157</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="1">
         <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -1857,11 +1880,12 @@
       <c r="A32" t="s">
         <v>159</v>
       </c>
-      <c r="B32" t="s">
-        <v>160</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="1">
         <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
       </c>
       <c r="F32" t="s">
         <v>161</v>
@@ -1877,12 +1901,13 @@
       <c r="A33" t="s">
         <v>163</v>
       </c>
-      <c r="B33" t="s">
-        <v>164</v>
-      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="1">
         <v>1</v>
       </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
       <c r="F33" t="s">
         <v>165</v>
       </c>
@@ -1891,8 +1916,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B28:B33"/>
+  </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>